--- a/Monthly/ACF - PACF/Log-Prices/keyence residuals - values.xlsx
+++ b/Monthly/ACF - PACF/Log-Prices/keyence residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.02164980839489411</v>
+        <v>-0.02373237991390005</v>
       </c>
       <c r="C3">
-        <v>-0.02185214305279031</v>
+        <v>-0.02395417785702062</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.04335936157373775</v>
+        <v>-0.02493584551151998</v>
       </c>
       <c r="C4">
-        <v>-0.04467631255254034</v>
+        <v>-0.02599505182876976</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.04134571574504157</v>
+        <v>-0.03843275786516157</v>
       </c>
       <c r="C5">
-        <v>-0.04462212640097016</v>
+        <v>-0.0408289366285377</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0494349863646238</v>
+        <v>-0.07057929806655953</v>
       </c>
       <c r="C6">
-        <v>-0.05563376999053451</v>
+        <v>-0.07619337653965863</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02456957647803302</v>
+        <v>0.02497218508655815</v>
       </c>
       <c r="C7">
-        <v>0.01920597946301176</v>
+        <v>0.02019233247814117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.0295074910546197</v>
+        <v>-0.01603452641764068</v>
       </c>
       <c r="C8">
-        <v>-0.03722446535354596</v>
+        <v>-0.0216339229471673</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04948592725909711</v>
+        <v>0.03711155586643008</v>
       </c>
       <c r="C9">
-        <v>0.04901909484714886</v>
+        <v>0.03414397027603619</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03750928187766093</v>
+        <v>0.02649832723499454</v>
       </c>
       <c r="C10">
-        <v>0.03934214983652664</v>
+        <v>0.02610207351281369</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1211498162942685</v>
+        <v>-0.1099979846198234</v>
       </c>
       <c r="C11">
-        <v>-0.1274991008224816</v>
+        <v>-0.1158381800652246</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.06305320810897676</v>
+        <v>-0.05692221905253479</v>
       </c>
       <c r="C12">
-        <v>-0.07335910928977614</v>
+        <v>-0.0691424559734969</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.007746870092677487</v>
+        <v>-0.01071239087012312</v>
       </c>
       <c r="C13">
-        <v>0.00384553643312791</v>
+        <v>-0.01393334113225612</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.07493819073006289</v>
+        <v>-0.08179815170238533</v>
       </c>
       <c r="C14">
-        <v>-0.1045668860176973</v>
+        <v>-0.1070705719448506</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1044094496026249</v>
+        <v>0.1194337968570528</v>
       </c>
       <c r="C15">
-        <v>0.1003962748255792</v>
+        <v>0.1111876034158333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.001999555686460598</v>
+        <v>-0.009782644099955369</v>
       </c>
       <c r="C16">
-        <v>-0.005948010992850805</v>
+        <v>-0.01662408569850725</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02605257406106242</v>
+        <v>0.01359352260185408</v>
       </c>
       <c r="C17">
-        <v>0.02221030374538824</v>
+        <v>0.007887229172458255</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.03814911022864084</v>
+        <v>0.05441187034143845</v>
       </c>
       <c r="C18">
-        <v>0.05646011564556445</v>
+        <v>0.07037416711414476</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.009492629973948305</v>
+        <v>-0.005756081678142168</v>
       </c>
       <c r="C19">
-        <v>0.02384852737645729</v>
+        <v>0.02533540441239163</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.04401591698995996</v>
+        <v>-0.05947530939523155</v>
       </c>
       <c r="C20">
-        <v>-0.07516944975313272</v>
+        <v>-0.09270788671536359</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.004707695808180045</v>
+        <v>0.001125236319675947</v>
       </c>
       <c r="C21">
-        <v>-0.0007626633169803936</v>
+        <v>0.006183015062350293</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.02224119094008099</v>
+        <v>0.02784863870626961</v>
       </c>
       <c r="C22">
-        <v>0.01682504184994096</v>
+        <v>0.0258723325636855</v>
       </c>
     </row>
   </sheetData>
